--- a/com.Trulia/src/test/resources/TruliaTestCases.xlsx
+++ b/com.Trulia/src/test/resources/TruliaTestCases.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabreenmostafa/IdeaProjects/BootCampTeam2/com.Trulia/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1DC826-64BE-494E-A337-4A67243C7539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375ECDA9-1D35-1E43-97D5-E2FFFBEC65DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1060" windowWidth="27420" windowHeight="16940" activeTab="3" xr2:uid="{A5345772-D6F1-3A41-A53F-10A2BFA02CF9}"/>
+    <workbookView xWindow="1360" yWindow="1060" windowWidth="27420" windowHeight="16940" activeTab="5" xr2:uid="{A5345772-D6F1-3A41-A53F-10A2BFA02CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="MortagesT2" sheetId="1" r:id="rId1"/>
     <sheet name="MortagesT3" sheetId="2" r:id="rId2"/>
     <sheet name="MortagesT4" sheetId="3" r:id="rId3"/>
     <sheet name="MortagesT8" sheetId="4" r:id="rId4"/>
+    <sheet name="RentT11" sheetId="5" r:id="rId5"/>
+    <sheet name="BuyT12" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
   <si>
     <t>Low monthly payments that won’t change</t>
   </si>
@@ -322,6 +324,96 @@
   </si>
   <si>
     <t>Advanced options</t>
+  </si>
+  <si>
+    <t>How do I post an apartment or home for rent?</t>
+  </si>
+  <si>
+    <t>Which sites will display my listing?</t>
+  </si>
+  <si>
+    <t>How quickly will my rental listing be posted on the site?</t>
+  </si>
+  <si>
+    <t>What will my rental listing look like?</t>
+  </si>
+  <si>
+    <t>Can I share my rental listing?</t>
+  </si>
+  <si>
+    <t>969 sqft</t>
+  </si>
+  <si>
+    <t>1,326 sqft</t>
+  </si>
+  <si>
+    <t>1,520 sqft</t>
+  </si>
+  <si>
+    <t>5,200 sqft</t>
+  </si>
+  <si>
+    <t>1,505 sqft</t>
+  </si>
+  <si>
+    <t>1,200 sqft</t>
+  </si>
+  <si>
+    <t>2,504 sqft</t>
+  </si>
+  <si>
+    <t>1,175 sqft</t>
+  </si>
+  <si>
+    <t>1,228 sqft</t>
+  </si>
+  <si>
+    <t>1,570 sqft</t>
+  </si>
+  <si>
+    <t>687 sqft</t>
+  </si>
+  <si>
+    <t>3,400 sqft</t>
+  </si>
+  <si>
+    <t>4,290 sqft</t>
+  </si>
+  <si>
+    <t>1,093 sqft</t>
+  </si>
+  <si>
+    <t>978 sqft</t>
+  </si>
+  <si>
+    <t>1,616 sqft</t>
+  </si>
+  <si>
+    <t>1,281 sqft</t>
+  </si>
+  <si>
+    <t>997 sqft</t>
+  </si>
+  <si>
+    <t>3,431 sqft</t>
+  </si>
+  <si>
+    <t>1,103 sqft</t>
+  </si>
+  <si>
+    <t>964 sqft</t>
+  </si>
+  <si>
+    <t>1,154 sqft</t>
+  </si>
+  <si>
+    <t>1,236 sqft</t>
+  </si>
+  <si>
+    <t>2,520 sqft</t>
+  </si>
+  <si>
+    <t>1,950 sqft</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1053D80B-9B5E-FE4A-B3AB-6F4B5388BBC8}">
   <dimension ref="A2:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
@@ -1214,4 +1306,219 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C7495A-044D-784F-8D78-92231815A549}">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A08EE30-7A7F-A04C-8887-E9D0C7E835B7}">
+  <dimension ref="A2:A33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>